--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Medical_Imagery_SRCNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F113A158-595C-44A7-ADF8-B8DD1D722767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0633E59-9F2A-4F8F-B24C-BFAE45DAE913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7725" yWindow="5460" windowWidth="28800" windowHeight="15435" xr2:uid="{CAF40AC4-3556-430B-A8BF-62A57BCAB967}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FGSM - 0.3</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>SSIM - 0.499</t>
+  </si>
+  <si>
+    <t>PSNR - 36.572</t>
+  </si>
+  <si>
+    <t>SSIM - 0.955</t>
   </si>
 </sst>
 </file>
@@ -402,13 +408,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -420,11 +425,17 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Medical_Imagery_SRCNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0633E59-9F2A-4F8F-B24C-BFAE45DAE913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180AB8C0-A3BF-4563-A39E-FCC59B9A0159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="5460" windowWidth="28800" windowHeight="15435" xr2:uid="{CAF40AC4-3556-430B-A8BF-62A57BCAB967}"/>
+    <workbookView xWindow="6480" yWindow="4725" windowWidth="28800" windowHeight="15435" xr2:uid="{CAF40AC4-3556-430B-A8BF-62A57BCAB967}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>FGSM - 0.3</t>
   </si>
@@ -44,16 +44,25 @@
     <t>SRRESNET</t>
   </si>
   <si>
-    <t>PSNR - 21.878</t>
-  </si>
-  <si>
-    <t>SSIM - 0.499</t>
-  </si>
-  <si>
-    <t>PSNR - 36.572</t>
-  </si>
-  <si>
-    <t>SSIM - 0.955</t>
+    <t>PGD</t>
+  </si>
+  <si>
+    <t>PSNR - 35.029</t>
+  </si>
+  <si>
+    <t>SSIM - 0.936</t>
+  </si>
+  <si>
+    <t>PSNR - 32.561</t>
+  </si>
+  <si>
+    <t>SSIM - 0.891</t>
+  </si>
+  <si>
+    <t>PSNR - 15.408</t>
+  </si>
+  <si>
+    <t>SSIM - 0.354</t>
   </si>
 </sst>
 </file>
@@ -405,39 +414,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F218495A-7F51-46AE-8D4B-05FCA6DFF216}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
